--- a/Dokumentacja/Pinout_RockPi.xlsx
+++ b/Dokumentacja/Pinout_RockPi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcel.garczyk\Desktop\Dokumentacja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0D7FAA-6A5B-4EAE-994C-F9BCD0A63458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5371215B-44D1-4E3B-9E71-1A3DA7026D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D00774A-9402-4490-8A27-8DFE7D54812A}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{5D00774A-9402-4490-8A27-8DFE7D54812A}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -421,12 +421,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -500,6 +494,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF66CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,61 +749,58 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -815,8 +812,50 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -830,53 +869,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1200,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB5D5EB-DED8-4EE3-9A23-E0AA0AA4A1DB}">
   <dimension ref="C3:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,49 +1261,49 @@
       </c>
     </row>
     <row r="5" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="38"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="44" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="48">
+      <c r="G5" s="39"/>
+      <c r="H5" s="49">
         <v>1</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="42">
+      <c r="J5" s="45">
         <v>2</v>
       </c>
-      <c r="K5" s="46"/>
-      <c r="L5" s="52" t="s">
+      <c r="K5" s="39"/>
+      <c r="L5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="46"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="27" t="s">
+      <c r="M5" s="39"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="26" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="39"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="49"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="50"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="37" t="s">
+      <c r="J6" s="46"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="36" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="13">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="57" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="13">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       <c r="N9" s="10">
         <v>148</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="26" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1424,12 +1424,12 @@
       <c r="N10" s="10">
         <v>147</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="O10" s="25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="13">
@@ -1462,7 +1462,7 @@
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="13">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="24" t="s">
+      <c r="O12" s="23" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       <c r="N13" s="10">
         <v>154</v>
       </c>
-      <c r="O13" s="23" t="s">
+      <c r="O13" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1548,12 +1548,12 @@
       <c r="N14" s="10">
         <v>156</v>
       </c>
-      <c r="O14" s="19" t="s">
+      <c r="O14" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="13">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="13">
@@ -1616,7 +1616,7 @@
       <c r="N16" s="10">
         <v>157</v>
       </c>
-      <c r="O16" s="29" t="s">
+      <c r="O16" s="28" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1708,7 +1708,7 @@
       <c r="O19" s="16"/>
     </row>
     <row r="20" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>83</v>
       </c>
       <c r="D20" s="13">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="10"/>
-      <c r="O20" s="24" t="s">
+      <c r="O20" s="23" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       <c r="O21" s="16"/>
     </row>
     <row r="22" spans="3:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="31" t="s">
         <v>85</v>
       </c>
       <c r="D22" s="13">
@@ -1837,18 +1837,18 @@
       <c r="O23" s="16"/>
     </row>
     <row r="24" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="33">
         <v>158</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35" t="s">
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="35">
         <v>37</v>
       </c>
       <c r="I24" s="2"/>
@@ -1868,16 +1868,16 @@
       <c r="O24" s="16"/>
     </row>
     <row r="25" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40" t="s">
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="56">
+      <c r="G25" s="53"/>
+      <c r="H25" s="43">
         <v>39</v>
       </c>
       <c r="I25" s="13"/>
@@ -1897,33 +1897,33 @@
       <c r="O25" s="16"/>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="57"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1931,14 +1931,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="91509c4e-eb7e-4e74-8e17-9208351a5c0c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010096BFF2FBEF99E34AB71ED3763860185A" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="ff33b354f4482d096d094f5141b7bc62">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="91509c4e-eb7e-4e74-8e17-9208351a5c0c" xmlns:ns4="44232f14-c862-4772-872a-e0b0ad95fe7b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="631c0704457dc65227027946905966a8" ns3:_="" ns4:_="">
     <xsd:import namespace="91509c4e-eb7e-4e74-8e17-9208351a5c0c"/>
@@ -2103,6 +2095,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="91509c4e-eb7e-4e74-8e17-9208351a5c0c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2113,16 +2113,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA8C6A30-DA49-42BC-8A24-58F0A3E88096}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="91509c4e-eb7e-4e74-8e17-9208351a5c0c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91CEE38D-EDEC-4B6F-9AFE-5AE158436173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2141,6 +2131,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA8C6A30-DA49-42BC-8A24-58F0A3E88096}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="91509c4e-eb7e-4e74-8e17-9208351a5c0c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{633BAE04-B5B2-4CEB-8BEE-2B9C0F3D5EB4}">
   <ds:schemaRefs>

--- a/Dokumentacja/Pinout_RockPi.xlsx
+++ b/Dokumentacja/Pinout_RockPi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcel.garczyk\Desktop\Dokumentacja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5371215B-44D1-4E3B-9E71-1A3DA7026D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2979E93-EB63-4F06-A819-C9142D915E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{5D00774A-9402-4490-8A27-8DFE7D54812A}"/>
+    <workbookView xWindow="28680" yWindow="4575" windowWidth="20730" windowHeight="11160" xr2:uid="{5D00774A-9402-4490-8A27-8DFE7D54812A}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -116,199 +116,199 @@
     <t>TFmini TX</t>
   </si>
   <si>
+    <t>PWM0</t>
+  </si>
+  <si>
+    <t>GPIO4_C2</t>
+  </si>
+  <si>
+    <t>GPIO4_A3</t>
+  </si>
+  <si>
+    <t>I2S1_SCLK</t>
+  </si>
+  <si>
+    <t>PWM left</t>
+  </si>
+  <si>
+    <t>PWM1</t>
+  </si>
+  <si>
+    <t>GPIO4_C6</t>
+  </si>
+  <si>
+    <t>MUX GND</t>
+  </si>
+  <si>
+    <t>SPDIF_TX</t>
+  </si>
+  <si>
+    <t>GPIO4_C5</t>
+  </si>
+  <si>
+    <t>GPIO4_D2</t>
+  </si>
+  <si>
+    <t>MUX A</t>
+  </si>
+  <si>
+    <t>MUX 3.3V</t>
+  </si>
+  <si>
+    <t>GPIO4_D4</t>
+  </si>
+  <si>
+    <t>MUX B</t>
+  </si>
+  <si>
+    <t>MUX RX</t>
+  </si>
+  <si>
+    <t>UART4_TXD</t>
+  </si>
+  <si>
+    <t>SPI1_TXD</t>
+  </si>
+  <si>
+    <t>GPIO1_B0</t>
+  </si>
+  <si>
+    <t>TFmini GND</t>
+  </si>
+  <si>
+    <t>MUX TX</t>
+  </si>
+  <si>
+    <t>UART4_RXD</t>
+  </si>
+  <si>
+    <t>SPI1_RXD</t>
+  </si>
+  <si>
+    <t>GPIO1_A7</t>
+  </si>
+  <si>
+    <t>GPIO4_D5</t>
+  </si>
+  <si>
+    <t>Podnośnik DIR</t>
+  </si>
+  <si>
+    <t>SPI1_CLK</t>
+  </si>
+  <si>
+    <t>GPIO1_B1</t>
+  </si>
+  <si>
+    <t>GPIO1_B2</t>
+  </si>
+  <si>
+    <t>SPI1_CSn</t>
+  </si>
+  <si>
+    <t>Podnośnik PWR</t>
+  </si>
+  <si>
+    <t>ADC_IN0</t>
+  </si>
+  <si>
+    <t>I2C2_SDA</t>
+  </si>
+  <si>
+    <t>GPIO2_A0</t>
+  </si>
+  <si>
+    <t>GPIO2_A1</t>
+  </si>
+  <si>
+    <t>I2C2_CLK</t>
+  </si>
+  <si>
+    <t>I2C6_SCL</t>
+  </si>
+  <si>
+    <t>SPI2_TXD</t>
+  </si>
+  <si>
+    <t>GPIO2_B2</t>
+  </si>
+  <si>
+    <t>GND Podnośnik</t>
+  </si>
+  <si>
+    <t>I2C6_SDA</t>
+  </si>
+  <si>
+    <t>SPI2_RXD</t>
+  </si>
+  <si>
+    <t>GPIO2_B1</t>
+  </si>
+  <si>
+    <t>GPIO3_C0</t>
+  </si>
+  <si>
+    <t>UART3_CTSn</t>
+  </si>
+  <si>
+    <t>SPI2_CSn</t>
+  </si>
+  <si>
+    <t>GPIO2_B4</t>
+  </si>
+  <si>
+    <t>I2S1_LRCK_TX</t>
+  </si>
+  <si>
+    <t>GPIO4_A5</t>
+  </si>
+  <si>
+    <t>GPIO4_A4</t>
+  </si>
+  <si>
+    <t>I2S1_LRCK_RX</t>
+  </si>
+  <si>
+    <t>GPIO4_D6</t>
+  </si>
+  <si>
+    <t>GPIO4_A6</t>
+  </si>
+  <si>
+    <t>I2S1_SDI</t>
+  </si>
+  <si>
+    <t>GPIO4_A7</t>
+  </si>
+  <si>
+    <t>I2S1_SDO</t>
+  </si>
+  <si>
+    <t>Enkoder prawy A</t>
+  </si>
+  <si>
+    <t>Enkoder prawy B</t>
+  </si>
+  <si>
+    <t>Enkoder lewy A</t>
+  </si>
+  <si>
+    <t>Enkoder lewy B</t>
+  </si>
+  <si>
+    <t>GND enkoder prawy</t>
+  </si>
+  <si>
+    <t>GND enkoder lewy</t>
+  </si>
+  <si>
+    <t>VCC enkoder prawy</t>
+  </si>
+  <si>
+    <t>VCC enkoder lewy</t>
+  </si>
+  <si>
     <t>PWM right</t>
-  </si>
-  <si>
-    <t>PWM0</t>
-  </si>
-  <si>
-    <t>GPIO4_C2</t>
-  </si>
-  <si>
-    <t>GPIO4_A3</t>
-  </si>
-  <si>
-    <t>I2S1_SCLK</t>
-  </si>
-  <si>
-    <t>PWM left</t>
-  </si>
-  <si>
-    <t>PWM1</t>
-  </si>
-  <si>
-    <t>GPIO4_C6</t>
-  </si>
-  <si>
-    <t>MUX GND</t>
-  </si>
-  <si>
-    <t>SPDIF_TX</t>
-  </si>
-  <si>
-    <t>GPIO4_C5</t>
-  </si>
-  <si>
-    <t>GPIO4_D2</t>
-  </si>
-  <si>
-    <t>MUX A</t>
-  </si>
-  <si>
-    <t>MUX 3.3V</t>
-  </si>
-  <si>
-    <t>GPIO4_D4</t>
-  </si>
-  <si>
-    <t>MUX B</t>
-  </si>
-  <si>
-    <t>MUX RX</t>
-  </si>
-  <si>
-    <t>UART4_TXD</t>
-  </si>
-  <si>
-    <t>SPI1_TXD</t>
-  </si>
-  <si>
-    <t>GPIO1_B0</t>
-  </si>
-  <si>
-    <t>TFmini GND</t>
-  </si>
-  <si>
-    <t>MUX TX</t>
-  </si>
-  <si>
-    <t>UART4_RXD</t>
-  </si>
-  <si>
-    <t>SPI1_RXD</t>
-  </si>
-  <si>
-    <t>GPIO1_A7</t>
-  </si>
-  <si>
-    <t>GPIO4_D5</t>
-  </si>
-  <si>
-    <t>Podnośnik DIR</t>
-  </si>
-  <si>
-    <t>SPI1_CLK</t>
-  </si>
-  <si>
-    <t>GPIO1_B1</t>
-  </si>
-  <si>
-    <t>GPIO1_B2</t>
-  </si>
-  <si>
-    <t>SPI1_CSn</t>
-  </si>
-  <si>
-    <t>Podnośnik PWR</t>
-  </si>
-  <si>
-    <t>ADC_IN0</t>
-  </si>
-  <si>
-    <t>I2C2_SDA</t>
-  </si>
-  <si>
-    <t>GPIO2_A0</t>
-  </si>
-  <si>
-    <t>GPIO2_A1</t>
-  </si>
-  <si>
-    <t>I2C2_CLK</t>
-  </si>
-  <si>
-    <t>I2C6_SCL</t>
-  </si>
-  <si>
-    <t>SPI2_TXD</t>
-  </si>
-  <si>
-    <t>GPIO2_B2</t>
-  </si>
-  <si>
-    <t>GND Podnośnik</t>
-  </si>
-  <si>
-    <t>I2C6_SDA</t>
-  </si>
-  <si>
-    <t>SPI2_RXD</t>
-  </si>
-  <si>
-    <t>GPIO2_B1</t>
-  </si>
-  <si>
-    <t>GPIO3_C0</t>
-  </si>
-  <si>
-    <t>UART3_CTSn</t>
-  </si>
-  <si>
-    <t>SPI2_CSn</t>
-  </si>
-  <si>
-    <t>GPIO2_B4</t>
-  </si>
-  <si>
-    <t>I2S1_LRCK_TX</t>
-  </si>
-  <si>
-    <t>GPIO4_A5</t>
-  </si>
-  <si>
-    <t>GPIO4_A4</t>
-  </si>
-  <si>
-    <t>I2S1_LRCK_RX</t>
-  </si>
-  <si>
-    <t>GPIO4_D6</t>
-  </si>
-  <si>
-    <t>GPIO4_A6</t>
-  </si>
-  <si>
-    <t>I2S1_SDI</t>
-  </si>
-  <si>
-    <t>GPIO4_A7</t>
-  </si>
-  <si>
-    <t>I2S1_SDO</t>
-  </si>
-  <si>
-    <t>Enkoder prawy A</t>
-  </si>
-  <si>
-    <t>Enkoder prawy B</t>
-  </si>
-  <si>
-    <t>Enkoder lewy A</t>
-  </si>
-  <si>
-    <t>Enkoder lewy B</t>
-  </si>
-  <si>
-    <t>GND enkoder prawy</t>
-  </si>
-  <si>
-    <t>GND enkoder lewy</t>
-  </si>
-  <si>
-    <t>VCC enkoder prawy</t>
-  </si>
-  <si>
-    <t>VCC enkoder lewy</t>
   </si>
 </sst>
 </file>
@@ -815,68 +815,68 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,7 +1201,7 @@
   <dimension ref="C3:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,45 +1261,45 @@
       </c>
     </row>
     <row r="5" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="47" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="49">
+      <c r="G5" s="38"/>
+      <c r="H5" s="46">
         <v>1</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="45">
+      <c r="J5" s="44">
         <v>2</v>
       </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="37" t="s">
+      <c r="K5" s="38"/>
+      <c r="L5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="41"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="40"/>
       <c r="O5" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="49"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="36" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="52"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="36" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1334,7 +1334,7 @@
       </c>
     </row>
     <row r="8" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="37" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="13">
@@ -1430,17 +1430,17 @@
     </row>
     <row r="11" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="17" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="D11" s="13">
         <v>146</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="H11" s="5">
         <v>11</v>
@@ -1450,10 +1450,10 @@
         <v>12</v>
       </c>
       <c r="K11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="10">
@@ -1463,17 +1463,17 @@
     </row>
     <row r="12" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="13">
         <v>150</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="H12" s="5">
         <v>13</v>
@@ -1489,7 +1489,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="10"/>
       <c r="O12" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1499,10 +1499,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="H13" s="5">
         <v>15</v>
@@ -1512,7 +1512,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1520,12 +1520,12 @@
         <v>154</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="2"/>
@@ -1541,7 +1541,7 @@
         <v>18</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1549,24 +1549,24 @@
         <v>156</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="13">
         <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="H15" s="5">
         <v>19</v>
@@ -1582,24 +1582,24 @@
       <c r="M15" s="2"/>
       <c r="N15" s="10"/>
       <c r="O15" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="13">
         <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="H16" s="5">
         <v>21</v>
@@ -1609,7 +1609,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1617,7 +1617,7 @@
         <v>157</v>
       </c>
       <c r="O16" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1627,10 +1627,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="H17" s="5">
         <v>23</v>
@@ -1640,17 +1640,17 @@
         <v>24</v>
       </c>
       <c r="K17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="10">
         <v>42</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="10"/>
@@ -1683,10 +1683,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="H19" s="8">
         <v>27</v>
@@ -1696,10 +1696,10 @@
         <v>28</v>
       </c>
       <c r="K19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="10">
@@ -1709,19 +1709,19 @@
     </row>
     <row r="20" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="13">
         <v>74</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="H20" s="5">
         <v>29</v>
@@ -1737,24 +1737,24 @@
       <c r="M20" s="2"/>
       <c r="N20" s="10"/>
       <c r="O20" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="13">
         <v>73</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="H21" s="5">
         <v>31</v>
@@ -1764,13 +1764,13 @@
         <v>32</v>
       </c>
       <c r="K21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="N21" s="10">
         <v>112</v>
@@ -1779,17 +1779,17 @@
     </row>
     <row r="22" spans="3:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="13">
         <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="H22" s="5">
         <v>33</v>
@@ -1812,10 +1812,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="H23" s="5">
         <v>35</v>
@@ -1825,10 +1825,10 @@
         <v>36</v>
       </c>
       <c r="K23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="10">
@@ -1838,7 +1838,7 @@
     </row>
     <row r="24" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="33">
         <v>158</v>
@@ -1846,7 +1846,7 @@
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
       <c r="G24" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H24" s="35">
         <v>37</v>
@@ -1856,10 +1856,10 @@
         <v>38</v>
       </c>
       <c r="K24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="10">
@@ -1869,15 +1869,15 @@
     </row>
     <row r="25" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="53"/>
-      <c r="H25" s="43">
+      <c r="G25" s="52"/>
+      <c r="H25" s="42">
         <v>39</v>
       </c>
       <c r="I25" s="13"/>
@@ -1885,10 +1885,10 @@
         <v>40</v>
       </c>
       <c r="K25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="10">
@@ -1898,16 +1898,20 @@
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="44"/>
+        <v>86</v>
+      </c>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="E25:E26"/>
@@ -1915,15 +1919,11 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="K5:K6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumentacja/Pinout_RockPi.xlsx
+++ b/Dokumentacja/Pinout_RockPi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcel.garczyk\Desktop\Dokumentacja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2979E93-EB63-4F06-A819-C9142D915E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F8EBD0-5005-47DA-8CFB-FDFB2F89987E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4575" windowWidth="20730" windowHeight="11160" xr2:uid="{5D00774A-9402-4490-8A27-8DFE7D54812A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D00774A-9402-4490-8A27-8DFE7D54812A}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
   <si>
     <t>Co to u nas + kolor przewodu</t>
   </si>
@@ -309,6 +309,21 @@
   </si>
   <si>
     <t>PWM right</t>
+  </si>
+  <si>
+    <t>Pinout RockPi 4 C+</t>
+  </si>
+  <si>
+    <t>Pinout Arduino UNO R3</t>
+  </si>
+  <si>
+    <t>Funkcja + kolor</t>
+  </si>
+  <si>
+    <t>Kolor przewodu + funkcja</t>
+  </si>
+  <si>
+    <t>Numer pinu</t>
   </si>
 </sst>
 </file>
@@ -364,7 +379,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,8 +518,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -703,11 +724,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -733,31 +846,15 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,9 +862,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -815,8 +909,8 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -824,6 +918,36 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -848,35 +972,102 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1198,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB5D5EB-DED8-4EE3-9A23-E0AA0AA4A1DB}">
-  <dimension ref="C3:O26"/>
+  <dimension ref="C3:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,93 +1411,141 @@
     <col min="15" max="15" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="14" t="s">
+    <row r="3" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C3" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
+      <c r="S3" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+    </row>
+    <row r="4" spans="3:23" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="S4" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="W4" s="59"/>
+    </row>
+    <row r="5" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="33"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="49">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="47">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="K5" s="31"/>
+      <c r="L5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="31"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="S5" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="63"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="56">
+        <v>2</v>
+      </c>
+      <c r="W5" s="58"/>
+    </row>
+    <row r="6" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="34"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="S6" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="T6" s="66"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="56">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>0</v>
-      </c>
+      <c r="W6" s="58"/>
     </row>
-    <row r="5" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="48"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="46">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="44">
-        <v>2</v>
-      </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="49"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="13">
+    <row r="7" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="60"/>
+      <c r="D7" s="10">
         <v>71</v>
       </c>
       <c r="E7" s="2"/>
@@ -1328,16 +1567,23 @@
         <v>7</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="27" t="s">
+      <c r="N7" s="9"/>
+      <c r="O7" s="20" t="s">
         <v>11</v>
       </c>
+      <c r="S7" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="69"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="56">
+        <v>4</v>
+      </c>
+      <c r="W7" s="58"/>
     </row>
-    <row r="8" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="13">
+    <row r="8" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="61"/>
+      <c r="D8" s="10">
         <v>72</v>
       </c>
       <c r="E8" s="2"/>
@@ -1359,14 +1605,21 @@
         <v>15</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="60"/>
+      <c r="S8" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="72"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="56">
+        <v>5</v>
+      </c>
+      <c r="W8" s="58"/>
     </row>
-    <row r="9" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="16"/>
-      <c r="D9" s="13">
+    <row r="9" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="61"/>
+      <c r="D9" s="10">
         <v>75</v>
       </c>
       <c r="E9" s="2"/>
@@ -1390,18 +1643,25 @@
         <v>20</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="10">
+      <c r="N9" s="9">
         <v>148</v>
       </c>
-      <c r="O9" s="26" t="s">
+      <c r="O9" s="19" t="s">
         <v>21</v>
       </c>
+      <c r="S9" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="T9" s="82"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="W9" s="75"/>
     </row>
-    <row r="10" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="13"/>
+    <row r="10" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="60"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
         <v>15</v>
@@ -1421,18 +1681,23 @@
         <v>24</v>
       </c>
       <c r="M10" s="2"/>
-      <c r="N10" s="10">
+      <c r="N10" s="9">
         <v>147</v>
       </c>
-      <c r="O10" s="25" t="s">
+      <c r="O10" s="18" t="s">
         <v>25</v>
       </c>
+      <c r="S10" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10" s="79"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="77"/>
     </row>
-    <row r="11" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="13">
+    <row r="11" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="61"/>
+      <c r="D11" s="10">
         <v>146</v>
       </c>
       <c r="E11" s="2"/>
@@ -1456,16 +1721,14 @@
         <v>29</v>
       </c>
       <c r="M11" s="2"/>
-      <c r="N11" s="10">
+      <c r="N11" s="9">
         <v>131</v>
       </c>
-      <c r="O11" s="16"/>
+      <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="13">
+    <row r="12" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="60"/>
+      <c r="D12" s="10">
         <v>150</v>
       </c>
       <c r="E12" s="2"/>
@@ -1487,14 +1750,14 @@
         <v>15</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="23" t="s">
+      <c r="N12" s="9"/>
+      <c r="O12" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="16"/>
-      <c r="D13" s="13">
+    <row r="13" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="11"/>
+      <c r="D13" s="10">
         <v>149</v>
       </c>
       <c r="E13" s="2"/>
@@ -1516,18 +1779,18 @@
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="10">
+      <c r="N13" s="9">
         <v>154</v>
       </c>
-      <c r="O13" s="22" t="s">
+      <c r="O13" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="16" t="s">
+    <row r="14" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
         <v>6</v>
@@ -1545,18 +1808,18 @@
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="10">
+      <c r="N14" s="9">
         <v>156</v>
       </c>
-      <c r="O14" s="18" t="s">
+      <c r="O14" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="20" t="s">
+    <row r="15" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="10">
         <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1580,16 +1843,16 @@
         <v>15</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="24" t="s">
+      <c r="N15" s="9"/>
+      <c r="O15" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="19" t="s">
+    <row r="16" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1613,16 +1876,16 @@
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="10">
+      <c r="N16" s="9">
         <v>157</v>
       </c>
-      <c r="O16" s="28" t="s">
+      <c r="O16" s="21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="16"/>
-      <c r="D17" s="13">
+      <c r="C17" s="11"/>
+      <c r="D17" s="10">
         <v>41</v>
       </c>
       <c r="E17" s="2"/>
@@ -1646,16 +1909,16 @@
         <v>55</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="10">
+      <c r="N17" s="9">
         <v>42</v>
       </c>
-      <c r="O17" s="16" t="s">
+      <c r="O17" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="16"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
         <v>15</v>
@@ -1673,12 +1936,12 @@
         <v>57</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="16"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="11"/>
     </row>
     <row r="19" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="16"/>
-      <c r="D19" s="13">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10">
         <v>64</v>
       </c>
       <c r="E19" s="2"/>
@@ -1702,16 +1965,16 @@
         <v>61</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="10">
+      <c r="N19" s="9">
         <v>65</v>
       </c>
-      <c r="O19" s="16"/>
+      <c r="O19" s="11"/>
     </row>
     <row r="20" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="10">
         <v>74</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1735,16 +1998,16 @@
         <v>15</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="23" t="s">
+      <c r="N20" s="9"/>
+      <c r="O20" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="10">
         <v>73</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1772,16 +2035,16 @@
       <c r="M21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="9">
         <v>112</v>
       </c>
-      <c r="O21" s="16"/>
+      <c r="O21" s="11"/>
     </row>
     <row r="22" spans="3:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="10">
         <v>76</v>
       </c>
       <c r="E22" s="2"/>
@@ -1803,11 +2066,11 @@
         <v>15</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="16"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="11"/>
     </row>
     <row r="23" spans="3:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="13">
+      <c r="D23" s="10">
         <v>133</v>
       </c>
       <c r="E23" s="2"/>
@@ -1831,24 +2094,24 @@
         <v>76</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="10">
+      <c r="N23" s="9">
         <v>132</v>
       </c>
-      <c r="O23" s="16"/>
+      <c r="O23" s="11"/>
     </row>
     <row r="24" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="26">
         <v>158</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34" t="s">
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="28">
         <v>37</v>
       </c>
       <c r="I24" s="2"/>
@@ -1862,25 +2125,25 @@
         <v>79</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="10">
+      <c r="N24" s="9">
         <v>134</v>
       </c>
-      <c r="O24" s="16"/>
+      <c r="O24" s="11"/>
     </row>
     <row r="25" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52" t="s">
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="42">
+      <c r="G25" s="37"/>
+      <c r="H25" s="45">
         <v>39</v>
       </c>
-      <c r="I25" s="13"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="5">
         <v>40</v>
       </c>
@@ -1891,23 +2154,43 @@
         <v>81</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" s="10">
+      <c r="N25" s="9">
         <v>135</v>
       </c>
-      <c r="O25" s="16"/>
+      <c r="O25" s="11"/>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="43"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="31">
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V9:W10"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="L5:L6"/>
@@ -1919,11 +2202,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1931,6 +2209,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="91509c4e-eb7e-4e74-8e17-9208351a5c0c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010096BFF2FBEF99E34AB71ED3763860185A" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="ff33b354f4482d096d094f5141b7bc62">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="91509c4e-eb7e-4e74-8e17-9208351a5c0c" xmlns:ns4="44232f14-c862-4772-872a-e0b0ad95fe7b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="631c0704457dc65227027946905966a8" ns3:_="" ns4:_="">
     <xsd:import namespace="91509c4e-eb7e-4e74-8e17-9208351a5c0c"/>
@@ -2095,14 +2381,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="91509c4e-eb7e-4e74-8e17-9208351a5c0c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2113,6 +2391,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA8C6A30-DA49-42BC-8A24-58F0A3E88096}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="91509c4e-eb7e-4e74-8e17-9208351a5c0c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91CEE38D-EDEC-4B6F-9AFE-5AE158436173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2131,16 +2419,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA8C6A30-DA49-42BC-8A24-58F0A3E88096}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="91509c4e-eb7e-4e74-8e17-9208351a5c0c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{633BAE04-B5B2-4CEB-8BEE-2B9C0F3D5EB4}">
   <ds:schemaRefs>

--- a/Dokumentacja/Pinout_RockPi.xlsx
+++ b/Dokumentacja/Pinout_RockPi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcel.garczyk\Desktop\Dokumentacja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pawel.hatka\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2979E93-EB63-4F06-A819-C9142D915E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CE36CA-8696-40ED-9B14-54F7AD958143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4575" windowWidth="20730" windowHeight="11160" xr2:uid="{5D00774A-9402-4490-8A27-8DFE7D54812A}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" xr2:uid="{5D00774A-9402-4490-8A27-8DFE7D54812A}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
   <si>
     <t>Co to u nas + kolor przewodu</t>
   </si>
@@ -309,6 +309,24 @@
   </si>
   <si>
     <t>PWM right</t>
+  </si>
+  <si>
+    <t>Pinout RockPi 4 C+</t>
+  </si>
+  <si>
+    <t>Pinout Arduino UNO R3</t>
+  </si>
+  <si>
+    <t>Funkcja + kolor</t>
+  </si>
+  <si>
+    <t>Kolor przewodu + funkcja</t>
+  </si>
+  <si>
+    <t>Numer pinu</t>
+  </si>
+  <si>
+    <t>5V</t>
   </si>
 </sst>
 </file>
@@ -364,7 +382,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,8 +521,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -703,11 +727,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -733,31 +845,15 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -767,9 +863,6 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -789,18 +882,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,72 +893,230 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1198,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB5D5EB-DED8-4EE3-9A23-E0AA0AA4A1DB}">
-  <dimension ref="C3:O26"/>
+  <dimension ref="C3:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,93 +1459,137 @@
     <col min="15" max="15" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="14" t="s">
+    <row r="3" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C3" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="37"/>
+      <c r="S3" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+    </row>
+    <row r="4" spans="3:23" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="S4" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="W4" s="35"/>
+    </row>
+    <row r="5" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="54"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="58"/>
+      <c r="H5" s="72">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="70">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>0</v>
-      </c>
+      <c r="K5" s="58"/>
+      <c r="L5" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="58"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="31"/>
+      <c r="S5" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="83"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="81">
+        <v>7</v>
+      </c>
+      <c r="W5" s="81"/>
     </row>
-    <row r="5" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="48"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="56" t="s">
+    <row r="6" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="55"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="97"/>
+      <c r="S6" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="T6" s="86"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="81">
         <v>6</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="46">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="44">
-        <v>2</v>
-      </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="26" t="s">
-        <v>88</v>
-      </c>
+      <c r="W6" s="81"/>
     </row>
-    <row r="6" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="49"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="13">
+    <row r="7" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="30"/>
+      <c r="D7" s="10">
         <v>71</v>
       </c>
       <c r="E7" s="2"/>
@@ -1328,16 +1611,23 @@
         <v>7</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="27" t="s">
+      <c r="N7" s="9"/>
+      <c r="O7" s="20" t="s">
         <v>11</v>
       </c>
+      <c r="S7" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="89"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="81">
+        <v>4</v>
+      </c>
+      <c r="W7" s="81"/>
     </row>
-    <row r="8" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="13">
+    <row r="8" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="31"/>
+      <c r="D8" s="10">
         <v>72</v>
       </c>
       <c r="E8" s="2"/>
@@ -1359,14 +1649,21 @@
         <v>15</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="30"/>
+      <c r="S8" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="92"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="81">
+        <v>5</v>
+      </c>
+      <c r="W8" s="81"/>
     </row>
-    <row r="9" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="16"/>
-      <c r="D9" s="13">
+    <row r="9" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="31"/>
+      <c r="D9" s="10">
         <v>75</v>
       </c>
       <c r="E9" s="2"/>
@@ -1390,18 +1687,25 @@
         <v>20</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="10">
+      <c r="N9" s="9">
         <v>148</v>
       </c>
-      <c r="O9" s="26" t="s">
+      <c r="O9" s="19" t="s">
         <v>21</v>
       </c>
+      <c r="S9" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="T9" s="75"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="W9" s="35"/>
     </row>
-    <row r="10" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="13"/>
+    <row r="10" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="30"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
         <v>15</v>
@@ -1421,18 +1725,23 @@
         <v>24</v>
       </c>
       <c r="M10" s="2"/>
-      <c r="N10" s="10">
+      <c r="N10" s="9">
         <v>147</v>
       </c>
-      <c r="O10" s="25" t="s">
+      <c r="O10" s="18" t="s">
         <v>25</v>
       </c>
+      <c r="S10" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10" s="78"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
     </row>
-    <row r="11" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="13">
+    <row r="11" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="31"/>
+      <c r="D11" s="10">
         <v>146</v>
       </c>
       <c r="E11" s="2"/>
@@ -1456,16 +1765,23 @@
         <v>29</v>
       </c>
       <c r="M11" s="2"/>
-      <c r="N11" s="10">
+      <c r="N11" s="9">
         <v>131</v>
       </c>
-      <c r="O11" s="16"/>
+      <c r="O11" s="11"/>
+      <c r="S11" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="T11" s="33"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="36">
+        <v>3</v>
+      </c>
+      <c r="W11" s="37"/>
     </row>
-    <row r="12" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="13">
+    <row r="12" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="30"/>
+      <c r="D12" s="10">
         <v>150</v>
       </c>
       <c r="E12" s="2"/>
@@ -1487,14 +1803,23 @@
         <v>15</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="23" t="s">
+      <c r="N12" s="9"/>
+      <c r="O12" s="16" t="s">
         <v>33</v>
       </c>
+      <c r="S12" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="T12" s="52"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="36">
+        <v>8</v>
+      </c>
+      <c r="W12" s="37"/>
     </row>
-    <row r="13" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="16"/>
-      <c r="D13" s="13">
+    <row r="13" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="11"/>
+      <c r="D13" s="10">
         <v>149</v>
       </c>
       <c r="E13" s="2"/>
@@ -1516,18 +1841,27 @@
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="10">
+      <c r="N13" s="9">
         <v>154</v>
       </c>
-      <c r="O13" s="22" t="s">
+      <c r="O13" s="15" t="s">
         <v>37</v>
       </c>
+      <c r="S13" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="T13" s="43"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="36">
+        <v>2</v>
+      </c>
+      <c r="W13" s="37"/>
     </row>
-    <row r="14" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="16" t="s">
+    <row r="14" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
         <v>6</v>
@@ -1545,18 +1879,27 @@
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="10">
+      <c r="N14" s="9">
         <v>156</v>
       </c>
-      <c r="O14" s="18" t="s">
+      <c r="O14" s="12" t="s">
         <v>40</v>
       </c>
+      <c r="S14" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="T14" s="46"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="36">
+        <v>9</v>
+      </c>
+      <c r="W14" s="37"/>
     </row>
-    <row r="15" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="20" t="s">
+    <row r="15" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="10">
         <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1580,16 +1923,25 @@
         <v>15</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="24" t="s">
+      <c r="N15" s="9"/>
+      <c r="O15" s="17" t="s">
         <v>45</v>
       </c>
+      <c r="S15" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="T15" s="49"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="W15" s="37"/>
     </row>
-    <row r="16" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="19" t="s">
+    <row r="16" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1613,16 +1965,25 @@
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="10">
+      <c r="N16" s="9">
         <v>157</v>
       </c>
-      <c r="O16" s="28" t="s">
+      <c r="O16" s="21" t="s">
         <v>51</v>
       </c>
+      <c r="S16" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="T16" s="38"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="W16" s="35"/>
     </row>
-    <row r="17" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="16"/>
-      <c r="D17" s="13">
+    <row r="17" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="11"/>
+      <c r="D17" s="10">
         <v>41</v>
       </c>
       <c r="E17" s="2"/>
@@ -1646,16 +2007,21 @@
         <v>55</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="10">
+      <c r="N17" s="9">
         <v>42</v>
       </c>
-      <c r="O17" s="16" t="s">
+      <c r="O17" s="11" t="s">
         <v>56</v>
       </c>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
     </row>
-    <row r="18" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="16"/>
-      <c r="D18" s="13"/>
+    <row r="18" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="11"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
         <v>15</v>
@@ -1673,12 +2039,21 @@
         <v>57</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="16"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="11"/>
+      <c r="S18" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="W18" s="81"/>
     </row>
-    <row r="19" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="16"/>
-      <c r="D19" s="13">
+    <row r="19" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10">
         <v>64</v>
       </c>
       <c r="E19" s="2"/>
@@ -1702,16 +2077,21 @@
         <v>61</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="10">
+      <c r="N19" s="9">
         <v>65</v>
       </c>
-      <c r="O19" s="16"/>
+      <c r="O19" s="11"/>
+      <c r="S19" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="T19" s="96"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="81"/>
     </row>
-    <row r="20" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="13">
+    <row r="20" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="31"/>
+      <c r="D20" s="10">
         <v>74</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1735,16 +2115,14 @@
         <v>15</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="23" t="s">
+      <c r="N20" s="9"/>
+      <c r="O20" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="13">
+    <row r="21" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="31"/>
+      <c r="D21" s="10">
         <v>73</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1772,16 +2150,14 @@
       <c r="M21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="9">
         <v>112</v>
       </c>
-      <c r="O21" s="16"/>
+      <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="3:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="13">
+    <row r="22" spans="3:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="98"/>
+      <c r="D22" s="10">
         <v>76</v>
       </c>
       <c r="E22" s="2"/>
@@ -1803,11 +2179,12 @@
         <v>15</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="16"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="3:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="13">
+    <row r="23" spans="3:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="100"/>
+      <c r="D23" s="10">
         <v>133</v>
       </c>
       <c r="E23" s="2"/>
@@ -1831,24 +2208,22 @@
         <v>76</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="10">
+      <c r="N23" s="9">
         <v>132</v>
       </c>
-      <c r="O23" s="16"/>
+      <c r="O23" s="11"/>
     </row>
-    <row r="24" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="33">
+    <row r="24" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="99"/>
+      <c r="D24" s="22">
         <v>158</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34" t="s">
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="24">
         <v>37</v>
       </c>
       <c r="I24" s="2"/>
@@ -1862,25 +2237,23 @@
         <v>79</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="10">
+      <c r="N24" s="9">
         <v>134</v>
       </c>
-      <c r="O24" s="16"/>
+      <c r="O24" s="11"/>
     </row>
-    <row r="25" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52" t="s">
+    <row r="25" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="31"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="42">
+      <c r="G25" s="60"/>
+      <c r="H25" s="68">
         <v>39</v>
       </c>
-      <c r="I25" s="13"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="5">
         <v>40</v>
       </c>
@@ -1891,23 +2264,44 @@
         <v>81</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" s="10">
+      <c r="N25" s="9">
         <v>135</v>
       </c>
-      <c r="O25" s="16"/>
+      <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C26" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="43"/>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C26" s="31"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="46">
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V18:W19"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V9:W10"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="L5:L6"/>
@@ -1919,11 +2313,18 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V16:W17"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="S16:U17"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S12:U12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1931,6 +2332,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="91509c4e-eb7e-4e74-8e17-9208351a5c0c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010096BFF2FBEF99E34AB71ED3763860185A" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="ff33b354f4482d096d094f5141b7bc62">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="91509c4e-eb7e-4e74-8e17-9208351a5c0c" xmlns:ns4="44232f14-c862-4772-872a-e0b0ad95fe7b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="631c0704457dc65227027946905966a8" ns3:_="" ns4:_="">
     <xsd:import namespace="91509c4e-eb7e-4e74-8e17-9208351a5c0c"/>
@@ -2095,14 +2504,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="91509c4e-eb7e-4e74-8e17-9208351a5c0c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2113,6 +2514,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA8C6A30-DA49-42BC-8A24-58F0A3E88096}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="91509c4e-eb7e-4e74-8e17-9208351a5c0c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91CEE38D-EDEC-4B6F-9AFE-5AE158436173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2131,16 +2542,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA8C6A30-DA49-42BC-8A24-58F0A3E88096}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="91509c4e-eb7e-4e74-8e17-9208351a5c0c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{633BAE04-B5B2-4CEB-8BEE-2B9C0F3D5EB4}">
   <ds:schemaRefs>
